--- a/graphics/vergelijking_recon_manueel.xlsx
+++ b/graphics/vergelijking_recon_manueel.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{49B5D7FE-0133-4667-B96E-53731B4834F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8DBB799-B6C1-41B1-8D99-74CB02ADED09}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6698EBA-DBD9-458E-B833-E0AE902CF29B}"/>
+    <workbookView xWindow="2724" yWindow="648" windowWidth="17280" windowHeight="8880" xr2:uid="{C6698EBA-DBD9-458E-B833-E0AE902CF29B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -878,6 +878,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1199,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9157AA6F-35C1-4119-A56D-869F2FED0EA1}">
   <dimension ref="A2:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/graphics/vergelijking_recon_manueel.xlsx
+++ b/graphics/vergelijking_recon_manueel.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{49B5D7FE-0133-4667-B96E-53731B4834F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8DBB799-B6C1-41B1-8D99-74CB02ADED09}"/>
   <bookViews>
-    <workbookView xWindow="2724" yWindow="648" windowWidth="17280" windowHeight="8880" xr2:uid="{C6698EBA-DBD9-458E-B833-E0AE902CF29B}"/>
+    <workbookView xWindow="6240" yWindow="5556" windowWidth="17280" windowHeight="8880" xr2:uid="{C6698EBA-DBD9-458E-B833-E0AE902CF29B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1203,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9157AA6F-35C1-4119-A56D-869F2FED0EA1}">
   <dimension ref="A2:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
